--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H2">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I2">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J2">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>11.90080310491128</v>
+        <v>12.857821713594</v>
       </c>
       <c r="R2">
-        <v>11.90080310491128</v>
+        <v>115.720395422346</v>
       </c>
       <c r="S2">
-        <v>0.01260881675888375</v>
+        <v>0.01256077779388951</v>
       </c>
       <c r="T2">
-        <v>0.01260881675888375</v>
+        <v>0.01256077779388951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H3">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I3">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J3">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>252.633371649702</v>
+        <v>253.230497776971</v>
       </c>
       <c r="R3">
-        <v>252.633371649702</v>
+        <v>2279.074479992739</v>
       </c>
       <c r="S3">
-        <v>0.2676632713127991</v>
+        <v>0.2473803171379859</v>
       </c>
       <c r="T3">
-        <v>0.2676632713127991</v>
+        <v>0.2473803171379859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H4">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I4">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J4">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>81.73836513395092</v>
+        <v>92.03892371417699</v>
       </c>
       <c r="R4">
-        <v>81.73836513395092</v>
+        <v>828.3503134275929</v>
       </c>
       <c r="S4">
-        <v>0.08660122002349546</v>
+        <v>0.08991262244212429</v>
       </c>
       <c r="T4">
-        <v>0.08660122002349546</v>
+        <v>0.08991262244212432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H5">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I5">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J5">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>6.667774092097927</v>
+        <v>7.331298387362445</v>
       </c>
       <c r="R5">
-        <v>6.667774092097927</v>
+        <v>65.98168548626201</v>
       </c>
       <c r="S5">
-        <v>0.007064459513845725</v>
+        <v>0.007161929293746615</v>
       </c>
       <c r="T5">
-        <v>0.007064459513845725</v>
+        <v>0.007161929293746616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H6">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I6">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J6">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>141.5452583691651</v>
+        <v>144.3874694591926</v>
       </c>
       <c r="R6">
-        <v>141.5452583691651</v>
+        <v>1299.487225132733</v>
       </c>
       <c r="S6">
-        <v>0.149966200611212</v>
+        <v>0.1410518018134804</v>
       </c>
       <c r="T6">
-        <v>0.149966200611212</v>
+        <v>0.1410518018134804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H7">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I7">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J7">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>45.79631715322472</v>
+        <v>52.47893679276344</v>
       </c>
       <c r="R7">
-        <v>45.79631715322472</v>
+        <v>472.310431134871</v>
       </c>
       <c r="S7">
-        <v>0.04852087427431143</v>
+        <v>0.05126655809953848</v>
       </c>
       <c r="T7">
-        <v>0.04852087427431143</v>
+        <v>0.0512665580995385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H8">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I8">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J8">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>4.026633355254842</v>
+        <v>4.708486985378222</v>
       </c>
       <c r="R8">
-        <v>4.026633355254842</v>
+        <v>42.376382868404</v>
       </c>
       <c r="S8">
-        <v>0.004266189574270422</v>
+        <v>0.004599710595320205</v>
       </c>
       <c r="T8">
-        <v>0.004266189574270422</v>
+        <v>0.004599710595320206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H9">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I9">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J9">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>85.4784296460946</v>
+        <v>92.73207621343177</v>
       </c>
       <c r="R9">
-        <v>85.4784296460946</v>
+        <v>834.588685920886</v>
       </c>
       <c r="S9">
-        <v>0.0905637919343409</v>
+        <v>0.09058976159635704</v>
       </c>
       <c r="T9">
-        <v>0.0905637919343409</v>
+        <v>0.09058976159635707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H10">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I10">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J10">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>27.65615266053256</v>
+        <v>33.70431509392021</v>
       </c>
       <c r="R10">
-        <v>27.65615266053256</v>
+        <v>303.338835845282</v>
       </c>
       <c r="S10">
-        <v>0.02930149823321272</v>
+        <v>0.0329256713944304</v>
       </c>
       <c r="T10">
-        <v>0.02930149823321272</v>
+        <v>0.03292567139443042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H11">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I11">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J11">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>5.448708852030707</v>
+        <v>5.915338709635334</v>
       </c>
       <c r="R11">
-        <v>5.448708852030707</v>
+        <v>53.238048386718</v>
       </c>
       <c r="S11">
-        <v>0.005772868509975672</v>
+        <v>0.005778681394280582</v>
       </c>
       <c r="T11">
-        <v>0.005772868509975672</v>
+        <v>0.005778681394280583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H12">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I12">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J12">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>115.666621512125</v>
+        <v>116.5006172372597</v>
       </c>
       <c r="R12">
-        <v>115.666621512125</v>
+        <v>1048.505555135337</v>
       </c>
       <c r="S12">
-        <v>0.1225479678059439</v>
+        <v>0.1138091971224854</v>
       </c>
       <c r="T12">
-        <v>0.1225479678059439</v>
+        <v>0.1138091971224854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H13">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I13">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J13">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q13">
-        <v>37.42340325520382</v>
+        <v>42.34320714402433</v>
       </c>
       <c r="R13">
-        <v>37.42340325520382</v>
+        <v>381.088864296219</v>
       </c>
       <c r="S13">
-        <v>0.03964983119029565</v>
+        <v>0.04136498606559529</v>
       </c>
       <c r="T13">
-        <v>0.03964983119029565</v>
+        <v>0.04136498606559531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H14">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I14">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J14">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N14">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q14">
-        <v>4.394535076628784</v>
+        <v>5.939048180554667</v>
       </c>
       <c r="R14">
-        <v>4.394535076628784</v>
+        <v>53.451433624992</v>
       </c>
       <c r="S14">
-        <v>0.004655978847245417</v>
+        <v>0.005801843124351357</v>
       </c>
       <c r="T14">
-        <v>0.004655978847245417</v>
+        <v>0.005801843124351359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H15">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I15">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J15">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q15">
-        <v>93.28834394238872</v>
+        <v>116.9675673363253</v>
       </c>
       <c r="R15">
-        <v>93.28834394238872</v>
+        <v>1052.708106026928</v>
       </c>
       <c r="S15">
-        <v>0.09883834092036022</v>
+        <v>0.1142653596487551</v>
       </c>
       <c r="T15">
-        <v>0.09883834092036022</v>
+        <v>0.1142653596487551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H16">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I16">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J16">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q16">
-        <v>30.18301450086182</v>
+        <v>42.51292439737066</v>
       </c>
       <c r="R16">
-        <v>30.18301450086182</v>
+        <v>382.616319576336</v>
       </c>
       <c r="S16">
-        <v>0.03197869048980749</v>
+        <v>0.0415307824776593</v>
       </c>
       <c r="T16">
-        <v>0.03197869048980749</v>
+        <v>0.04153078247765931</v>
       </c>
     </row>
   </sheetData>
